--- a/pred_ohlcv/54_21/2019-10-27 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 PLY ohlcv.xlsx
@@ -5410,7 +5410,7 @@
         <v>-2710186.7368</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-2253494.954399999</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-2335168.977299999</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-2335168.977299999</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-2674203.775099999</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-2439516.210399999</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-2598937.385399999</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-2129638.543399999</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-2625624.973099999</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-2948328.561099999</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-2948328.561099999</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-2555063.177799999</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2605696.089099999</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2471014.410599999</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-2668278.908199999</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-2544356.488299999</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2847026.687099999</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-2887961.362499999</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2006356.310399998</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-2176004.237099999</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-2124912.647199999</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-2400374.530399999</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1163866.477999999</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1163866.477999999</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1245204.514499999</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1545456.331099999</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1545456.331099999</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1463081.626699999</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1463081.626699999</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1285314.242799999</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1264648.043399999</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1470307.023799999</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1584710.940399999</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1964400.103799999</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-1913804.115899999</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-2116778.738499999</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-2116778.738499999</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-2116778.738499999</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1792597.491499999</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1837303.008699999</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1837303.008699999</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1837303.008699999</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-2427207.485899999</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-2427207.485899999</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-2594079.060399999</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-2948707.940799999</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-2948707.940799999</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-3041176.7843</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 PLY ohlcv.xlsx
@@ -5410,7 +5410,7 @@
         <v>-2710186.7368</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-2253494.954399999</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-2335168.977299999</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-2335168.977299999</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-2674203.775099999</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-2439516.210399999</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-2598937.385399999</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-2129638.543399999</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-2625624.973099999</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-2948328.561099999</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-2948328.561099999</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-2555063.177799999</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-2605696.089099999</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2471014.410599999</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-2668278.908199999</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-2544356.488299999</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2847026.687099999</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-2887961.362499999</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-2756303.412699999</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-2411736.838599999</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2006356.310399998</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-2176004.237099999</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-2176004.237099999</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2684336.922099999</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-2508416.954399998</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-2061950.348699998</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-2061950.348699998</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-2061950.348699998</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-2423598.412599999</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-2423598.412599999</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-2423598.412599999</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-2178019.209899999</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-2369220.897199999</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-2124912.647199999</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-2124912.647199999</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-2400364.530399999</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-2400374.530399999</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-2398571.360099999</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1163866.477999999</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1163866.477999999</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1245204.514499999</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1545456.331099999</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1545456.331099999</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-1463081.626699999</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-1463081.626699999</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1285314.242799999</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1004484.245999999</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1584710.940399999</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-1913804.115899999</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-2116778.738499999</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1918866.307599999</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-2356752.541199999</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-2368269.733699999</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1792597.491499999</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-1989361.064399999</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1814601.536899999</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1837303.008699999</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-1837303.008699999</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-1837303.008699999</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-2427207.485899999</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-2427207.485899999</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-2594079.060399999</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-2948707.940799999</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-2948707.940799999</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-3041176.7843</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
